--- a/script/正常报备测试数据2条.xlsx
+++ b/script/正常报备测试数据2条.xlsx
@@ -479,17 +479,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仵鹏</t>
+          <t>仇洪伟</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>自主招聘</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上线前最后的供应商1126</t>
+          <t>战丽梅</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -499,25 +499,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>劳务协议</t>
+          <t>兼职协议</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>371083199508219000</t>
+          <t>451023200212176370</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15567722221</t>
+          <t>15071241941</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44750.20577546296</v>
+        <v>44752.4659837963</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>全秀荣</t>
+          <t>孙婷</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -529,7 +529,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>仇洪伟</t>
+          <t>李勇</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -549,25 +549,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>劳动合同</t>
+          <t>兼职协议</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>640221199411241187</t>
+          <t>431223199209199178</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15508649312</t>
+          <t>18025151626</t>
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44750.2440625</v>
+        <v>44752.21681712963</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>魏慧</t>
+          <t>陈彬</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
